--- a/biology/Zoologie/Chalcides_montanus/Chalcides_montanus.xlsx
+++ b/biology/Zoologie/Chalcides_montanus/Chalcides_montanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides montanus est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides montanus est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Maroc. Elle se rencontre dans le Haut Atlas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Maroc. Elle se rencontre dans le Haut Atlas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique montanus vient du latin montanus, se rapportant aux montagnes, en référence à la répartition de ce saurien[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique montanus vient du latin montanus, se rapportant aux montagnes, en référence à la répartition de ce saurien.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Werner, 1931 : Ergebnisse einer zoologischen Forschungsreise nach Marokko. III. Unternommen 1930 mit Unterstützung der Akademie der Wissenschaften in Wien von Franz Werner und Richard Ebner. III. Amphibien und Reptilien. Sitzungsberichte der Österreichischen Akademie der Wissenschaften. Mathematisch Naturwissenschaftliche Klasse, vol. 140, p. 272-318.</t>
         </is>
